--- a/H1FR20/Released/BOM/H1FR20.xlsx
+++ b/H1FR20/Released/BOM/H1FR20.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H1FR2x\H1FR20\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD088F2-AAAC-4847-9601-362D09DD16D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC93CD8-8704-4BAF-9E13-9D8EB81A7784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H1FR10" sheetId="1" r:id="rId1"/>
+    <sheet name="H1FR20" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,9 +251,6 @@
     <t>https://octopart.com/5-146280-1-te+connectivity+%2F+amp-40259676?r=sp</t>
   </si>
   <si>
-    <t xml:space="preserve">SX1276 LoRa Module 868 MHz (H1FR10) </t>
-  </si>
-  <si>
     <t>C1, C2, C4, C6, C8, C9</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>915MHz 100mW CE-RED Certified Long Range LoRa Module LoRa1276-C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SX1276 LoRa Module 915 MHz (H1FR20) </t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -1588,16 +1588,16 @@
         <v>63</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="E11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>65</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>64</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>46</v>
@@ -1725,19 +1725,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -1808,16 +1808,16 @@
         <v>57</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
